--- a/data/lit_review/processed/species_key.xlsx
+++ b/data/lit_review/processed/species_key.xlsx
@@ -1840,49 +1840,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Goldfish</t>
+          <t>Green-lipped mussel</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Carassius auratus</t>
+          <t>Perna canaliculus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cypriniformes</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Cyprinidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Carassius</t>
+          <t>Perna</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Green-lipped mussel</t>
+          <t>Grooved carpet shell</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Perna canaliculus</t>
+          <t>Ruditapes decussatus</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1897,29 +1897,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Perna</t>
+          <t>Ruditapes</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Grooved carpet shell</t>
+          <t>Grooved razor shell</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ruditapes decussatus</t>
+          <t>Solen marginatus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1939,98 +1939,98 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Solenidae</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ruditapes</t>
+          <t>Solen</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Grooved razor shell</t>
+          <t>Gulf toadfish</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Solen marginatus</t>
+          <t>Opsanus beta</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Batrachoidiformes</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Solenidae</t>
+          <t>Batrachoididae</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Solen</t>
+          <t>Opsanus</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Gulf toadfish</t>
+          <t>Hard clam</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Opsanus beta</t>
+          <t>Mercenaria campechiensis</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Batrachoidiformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Batrachoididae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Opsanus</t>
+          <t>Mercenaria</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Hard clam</t>
+          <t>Japanese scallop</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mercenaria campechiensis</t>
+          <t>Mizuhopecten yessoensis</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mercenaria</t>
+          <t>Mizuhopecten</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Japanese scallop</t>
+          <t>Jinjiang oyster</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mizuhopecten yessoensis</t>
+          <t>Magallana rivularis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2082,29 +2082,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Mizuhopecten</t>
+          <t>Magallana</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jinjiang oyster</t>
+          <t>King scallop</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Magallana rivularis</t>
+          <t>Pecten maximus</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2119,29 +2119,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ostreida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Pecten</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>King scallop</t>
+          <t>Korean hard-shelled mussel</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Pecten maximus</t>
+          <t>Mytilus coruscus</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2156,66 +2156,66 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pecten</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Korean hard-shelled mussel</t>
+          <t>Lebranche mullet</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mytilus coruscus</t>
+          <t>Mugil liza</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mugiliformes</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Mugilidae</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Mugil</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lebranche mullet</t>
+          <t>Lionfish</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Mugil liza</t>
+          <t>Pterois volitans</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2230,66 +2230,66 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mugiliformes</t>
+          <t>Scorpaeniformes</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mugilidae</t>
+          <t>Scorpaenidae</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Mugil</t>
+          <t>Pterois</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Lionfish</t>
+          <t>Manila clam</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pterois volitans</t>
+          <t>Ruditapes philippinarum</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Scorpaeniformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Scorpaenidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Pterois</t>
+          <t>Ruditapes</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Manila clam</t>
+          <t>Mediterranean mussel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ruditapes philippinarum</t>
+          <t>Mytilus galloprovincialis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2304,29 +2304,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ruditapes</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mediterranean mussel</t>
+          <t>Mussels</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Mytilus spp.</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2358,12 +2358,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mussels</t>
+          <t>Mysid crustacean</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Mytilus spp.</t>
+          <t>Neomysis awatschensis</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2373,34 +2373,34 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mytilida</t>
+          <t>Mysida</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Mysidae</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Neomysis</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Mysid crustacean</t>
+          <t>N. scintillans dinoflagellate</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Neomysis awatschensis</t>
+          <t>Noctiluca scintillans</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2410,34 +2410,34 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mysida</t>
+          <t>Noctilucales</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Mysidae</t>
+          <t>Noctilucaceae</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Neomysis</t>
+          <t>Noctiluca</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>N. scintillans dinoflagellate</t>
+          <t>Navaja clam</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Noctiluca scintillans</t>
+          <t>Ensis macha</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2447,34 +2447,34 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Noctilucales</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Noctilucaceae</t>
+          <t>Pharidae</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Noctiluca</t>
+          <t>Ensis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Navaja clam</t>
+          <t>Noble scallop</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ensis macha</t>
+          <t>Chlamys nobilis</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2489,29 +2489,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pharidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ensis</t>
+          <t>Chlamys</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Noble scallop</t>
+          <t>Northern quahog</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Chlamys nobilis</t>
+          <t>Mercenaria mercenaria</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2526,66 +2526,66 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Chlamys</t>
+          <t>Mercenaria</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Northern quahog</t>
+          <t>Obscure pufferfish</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Mercenaria mercenaria</t>
+          <t>Takifugu obscurus</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Tetraodontiformes</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Tetraodontidae</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Mercenaria</t>
+          <t>Takifugu</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Obscure pufferfish</t>
+          <t>Orange-spotted grouper</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Takifugu obscurus</t>
+          <t>Epinephelus coioides</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2600,66 +2600,66 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tetraodontiformes</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tetraodontidae</t>
+          <t>Serranidae</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Takifugu</t>
+          <t>Epinephelus</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Orange-spotted grouper</t>
+          <t>Pacific giant lions-paw scallop</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Epinephelus coioides</t>
+          <t>Nodipecten subnodosus</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Serranidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Epinephelus</t>
+          <t>Nodipecten</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pacific giant lions-paw scallop</t>
+          <t>Pacific mole crab</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Nodipecten subnodosus</t>
+          <t>Emerita analoga</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2669,34 +2669,34 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Hippidae</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Nodipecten</t>
+          <t>Emerita</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pacific mole crab</t>
+          <t>Pacific oyster</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Emerita analoga</t>
+          <t>Magallana gigas</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2706,29 +2706,29 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Hippidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Emerita</t>
+          <t>Magallana</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pacific oyster</t>
+          <t>Pacific oyster (diploid)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2765,7 +2765,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pacific oyster (diploid)</t>
+          <t>Pacific oyster (triploid)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pacific oyster (triploid)</t>
+          <t>Pacific razor clam</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Magallana gigas</t>
+          <t>Siliqua patula</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2822,29 +2822,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ostreida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Pharidae</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Siliqua</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Pacific razor clam</t>
+          <t>Peruvian calico scallop</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Siliqua patula</t>
+          <t>Argopecten purpuratus</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2859,103 +2859,103 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pharidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Siliqua</t>
+          <t>Argopecten</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Peruvian calico scallop</t>
+          <t>Pinfish</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Argopecten purpuratus</t>
+          <t>Lagodon rhomboides</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Sparidae</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Argopecten</t>
+          <t>Lagodon</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pinfish</t>
+          <t>Pipi clam</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Lagodon rhomboides</t>
+          <t>Paphies australis</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Sparidae</t>
+          <t>Mesodesmatidae</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Lagodon</t>
+          <t>Paphies</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Pipi clam</t>
+          <t>Purple clam</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Paphies australis</t>
+          <t>Hiatula diphos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2970,29 +2970,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Cardiida</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Mesodesmatidae</t>
+          <t>Psammobiidae</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Paphies</t>
+          <t>Hiatula</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Purple clam</t>
+          <t>Purple-hinged rock scallop</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hiatula diphos</t>
+          <t>Crassadoma gigantea</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3007,29 +3007,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cardiida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Psammobiidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hiatula</t>
+          <t>Crassadoma</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Purple-hinged rock scallop</t>
+          <t>Queen scallop</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Crassadoma gigantea</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Crassadoma</t>
+          <t>Aequipecten</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Queen scallop</t>
+          <t>Red rock crab</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Cancer productus</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3076,34 +3076,34 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Cancridae</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Aequipecten</t>
+          <t>Cancer</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Red rock crab</t>
+          <t>Red sea squirt</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cancer productus</t>
+          <t>Pyura chilensis</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3113,34 +3113,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Ascidiacea</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Pleurogona</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Cancridae</t>
+          <t>Pyuridae</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Pyura</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Red sea squirt</t>
+          <t>Ribbed mussel</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pyura chilensis</t>
+          <t>Aulacomya atra</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3150,34 +3150,34 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Pleurogona</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pyuridae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Pyura</t>
+          <t>Aulacomya</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Ribbed mussel</t>
+          <t>Rough cockle</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Aulacomya atra</t>
+          <t>Acanthocardia tuberculata</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3192,29 +3192,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Cardiidae</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Aulacomya</t>
+          <t>Acanthocardia</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Rough cockle</t>
+          <t>Smooth clam</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Acanthocardia tuberculata</t>
+          <t>Callista chione</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3234,24 +3234,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Cardiidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Acanthocardia</t>
+          <t>Callista</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Smooth clam</t>
+          <t>Soft-shell clam</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Callista chione</t>
+          <t>Mya arenaria</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3266,29 +3266,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Myoida</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Myidae</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Callista</t>
+          <t>Mya</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Soft-shell clam</t>
+          <t>South African abalone</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Mya arenaria</t>
+          <t>Haliotis midae</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3298,22 +3298,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Myoida</t>
+          <t>Patellogastropoda</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Myidae</t>
+          <t>Haliotidae</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Mya</t>
+          <t>Haliotis</t>
         </is>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tebula snail</t>
+          <t>Tegula snail</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">

--- a/data/lit_review/processed/species_key.xlsx
+++ b/data/lit_review/processed/species_key.xlsx
@@ -693,12 +693,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Atlantic sea scallop</t>
+          <t>Atlantic ribbed mussel</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Placopecten magellanicus</t>
+          <t>Geukensia demissa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -713,103 +713,103 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Placopecten</t>
+          <t>Geukensia</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Atlantic spadefish</t>
+          <t>Atlantic sea scallop</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Chaetodipterus faber</t>
+          <t>Placopecten magellanicus</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ephippidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Chaetodipterus</t>
+          <t>Placopecten</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Atlantic surfclam</t>
+          <t>Atlantic spadefish</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Spisula solidissima</t>
+          <t>Chaetodipterus faber</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mactridae</t>
+          <t>Ephippidae</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Spisula</t>
+          <t>Chaetodipterus</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Australian blacklip abalone</t>
+          <t>Atlantic surfclam</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Haliotis rubra</t>
+          <t>Spisula solidissima</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -819,34 +819,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Patellogastropoda</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Haliotidae</t>
+          <t>Mactridae</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Haliotis</t>
+          <t>Spisula</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bay scallop</t>
+          <t>Australian blacklip abalone</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Argopecten irradians</t>
+          <t>Haliotis rubra</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -856,108 +856,108 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Patellogastropoda</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Haliotidae</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Argopecten</t>
+          <t>Haliotis</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Black sea bream</t>
+          <t>Bay scallop</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Acanthopagrus schlegelii</t>
+          <t>Argopecten irradians</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Sparidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Acanthopagrus</t>
+          <t>Argopecten</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Black tiger prawn</t>
+          <t>Black sea bream</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Penaeus monodon</t>
+          <t>Acanthopagrus schlegelii</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Penaeidae</t>
+          <t>Sparidae</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Penaeus</t>
+          <t>Acanthopagrus</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blue mussel</t>
+          <t>Black tiger prawn</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Mytilus edulis</t>
+          <t>Penaeus monodon</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -967,34 +967,34 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Penaeidae</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Penaeus</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bottlenose dolphin</t>
+          <t>Blue mussel</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Tursiops truncatus</t>
+          <t>Mytilus edulis</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1004,34 +1004,34 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mammalia</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cetacea</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Delphinidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Tursiops</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Brown crab</t>
+          <t>Bottlenose dolphin</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cancer pagurus</t>
+          <t>Tursiops truncatus</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1041,34 +1041,34 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Mammalia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Cetacea</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cancridae</t>
+          <t>Delphinidae</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Tursiops</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Brown mussel</t>
+          <t>Brown crab</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Perna perna</t>
+          <t>Cancer pagurus</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1078,34 +1078,34 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Cancridae</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Perna</t>
+          <t>Cancer</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C. finmarchicus copepod</t>
+          <t>Brown mussel</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Calanus finmarchicus</t>
+          <t>Perna perna</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1115,34 +1115,34 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Calanoida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Calanidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Calanus</t>
+          <t>Perna</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>C. glacialis copepod</t>
+          <t>C. finmarchicus copepod</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Calanus glacialis</t>
+          <t>Calanus finmarchicus</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1174,12 +1174,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>California mussel</t>
+          <t>C. glacialis copepod</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Mytilus californianus</t>
+          <t>Calanus glacialis</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1189,34 +1189,34 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Maxillopoda</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Calanoida</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Calanidae</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Calanus</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Carolinian ghost shrimp</t>
+          <t>California mussel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Callichirus major</t>
+          <t>Mytilus californianus</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1226,34 +1226,34 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Callianassidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Callichirus</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean mussel</t>
+          <t>Carolinian ghost shrimp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mytilus chilensis</t>
+          <t>Callichirus major</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1263,34 +1263,34 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Callianassidae</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Callichirus</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chinese freshwater snail</t>
+          <t>Chilean mussel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sinotaia quadrata</t>
+          <t>Mytilus chilensis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1300,34 +1300,34 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Architaenioglossa</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Viviparidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sinotaia</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chinese spiny lobster</t>
+          <t>Chilean ribbed mussel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Panulirus stimpsoni</t>
+          <t>Aulacomya atra</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1337,71 +1337,71 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Palinuridae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Panulirus</t>
+          <t>Aulacomya</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Coho salmon</t>
+          <t>Chinese freshwater snail</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oncorhynchus kisutch</t>
+          <t>Sinotaia quadrata</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Salmoniformes</t>
+          <t>Architaenioglossa</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Salmonidae</t>
+          <t>Viviparidae</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Oncorhynchus</t>
+          <t>Sinotaia</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Common cockle</t>
+          <t>Chinese spiny lobster</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Cerastoderma edule</t>
+          <t>Panulirus stimpsoni</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1411,71 +1411,71 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cardiidae</t>
+          <t>Palinuridae</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cerastoderma</t>
+          <t>Panulirus</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Common octopus</t>
+          <t>Coho salmon</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Octopus vulgaris</t>
+          <t>Oncorhynchus kisutch</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cephalopoda</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Octopoda</t>
+          <t>Salmoniformes</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Octopodidae</t>
+          <t>Salmonidae</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Octopus</t>
+          <t>Oncorhynchus</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Constricted tagelus</t>
+          <t>Common cockle</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sinonovacula constricta</t>
+          <t>Cerastoderma edule</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1495,24 +1495,24 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Solecurtidae</t>
+          <t>Cardiidae</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Sinonovacula</t>
+          <t>Cerastoderma</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Dungeness crab</t>
+          <t>Common octopus</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Metacarcinus magister</t>
+          <t>Octopus vulgaris</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1522,34 +1522,34 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Cephalopoda</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Octopoda</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cancridae</t>
+          <t>Octopodidae</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Metacarcinus</t>
+          <t>Octopus</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>E. affinis copepod</t>
+          <t>Constricted tagelus</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Eurytemora affinis</t>
+          <t>Sinonovacula constricta</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1559,34 +1559,34 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Calanoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Temoridae</t>
+          <t>Solecurtidae</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Eurytemora</t>
+          <t>Sinonovacula</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Eastern oyster</t>
+          <t>Dungeness crab</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Crassostrea virginica</t>
+          <t>Metacarcinus magister</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1596,34 +1596,34 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Cancridae</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Crassostrea</t>
+          <t>Metacarcinus</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>European flat oyster</t>
+          <t>E. affinis copepod</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ostrea edulis</t>
+          <t>Eurytemora affinis</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1633,34 +1633,34 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Maxillopoda</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Calanoida</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Temoridae</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ostrea</t>
+          <t>Eurytemora</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Farrer's scallop</t>
+          <t>Eastern oyster</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Scaeochlamys farreri</t>
+          <t>Crassostrea virginica</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1675,29 +1675,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Pectinida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Scaeochlamys</t>
+          <t>Crassostrea</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Flat oyster</t>
+          <t>European flat oyster</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ostrea chilensis</t>
+          <t>Ostrea edulis</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1729,12 +1729,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Geoduck clam</t>
+          <t>Farrer's scallop</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Panopea globosa</t>
+          <t>Scaeochlamys farreri</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1749,29 +1749,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Myoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Hiatellidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Panopea</t>
+          <t>Scaeochlamys</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Giant barnacle</t>
+          <t>Flat oyster</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Austromegabalanus psittacus</t>
+          <t>Ostrea chilensis</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1781,71 +1781,71 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Thecostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Balanomorpha</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Balanidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Austromegabalanus</t>
+          <t>Ostrea</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Gilthead seabream</t>
+          <t>Geoduck clam</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sparus aurata</t>
+          <t>Panopea globosa</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Myoida</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sparidae</t>
+          <t>Hiatellidae</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Sparus</t>
+          <t>Panopea</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Green-lipped mussel</t>
+          <t>Giant barnacle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Perna canaliculus</t>
+          <t>Austromegabalanus psittacus</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1855,71 +1855,71 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Thecostraca</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Balanomorpha</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Balanidae</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Perna</t>
+          <t>Austromegabalanus</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Grooved carpet shell</t>
+          <t>Gilthead seabream</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Ruditapes decussatus</t>
+          <t>Sparus aurata</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Sparidae</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ruditapes</t>
+          <t>Sparus</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Grooved razor shell</t>
+          <t>Green-lipped mussel</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Solen marginatus</t>
+          <t>Perna canaliculus</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1934,66 +1934,66 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Solenidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Solen</t>
+          <t>Perna</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gulf toadfish</t>
+          <t>Grooved carpet shell</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Opsanus beta</t>
+          <t>Ruditapes decussatus</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Batrachoidiformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Batrachoididae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Opsanus</t>
+          <t>Ruditapes</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Hard clam</t>
+          <t>Grooved razor shell</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mercenaria campechiensis</t>
+          <t>Solen marginatus</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Solenidae</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Mercenaria</t>
+          <t>Solen</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Japanese scallop</t>
+          <t>Gulf toadfish</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mizuhopecten yessoensis</t>
+          <t>Opsanus beta</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Batrachoidiformes</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Batrachoididae</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Mizuhopecten</t>
+          <t>Opsanus</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Jinjiang oyster</t>
+          <t>Hard clam</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Magallana rivularis</t>
+          <t>Mercenaria campechiensis</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2082,29 +2082,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ostreida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Mercenaria</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>King scallop</t>
+          <t>Japanese scallop</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Pecten maximus</t>
+          <t>Mizuhopecten yessoensis</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2129,19 +2129,19 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Pecten</t>
+          <t>Mizuhopecten</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Korean hard-shelled mussel</t>
+          <t>Jinjiang oyster</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mytilus coruscus</t>
+          <t>Magallana rivularis</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2156,177 +2156,177 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Magallana</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lebranche mullet</t>
+          <t>King scallop</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Mugil liza</t>
+          <t>Pecten maximus</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Mugiliformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mugilidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Mugil</t>
+          <t>Pecten</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lionfish</t>
+          <t>Korean hard-shelled mussel</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pterois volitans</t>
+          <t>Mytilus coruscus</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Scorpaeniformes</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Scorpaenidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Pterois</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Manila clam</t>
+          <t>Lebranche mullet</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ruditapes philippinarum</t>
+          <t>Mugil liza</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Mugiliformes</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Mugilidae</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ruditapes</t>
+          <t>Mugil</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mediterranean mussel</t>
+          <t>Lionfish</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mytilus galloprovincialis</t>
+          <t>Pterois volitans</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Scorpaeniformes</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Scorpaenidae</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Pterois</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Mussels</t>
+          <t>Manila clam</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Mytilus spp.</t>
+          <t>Ruditapes philippinarum</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2341,29 +2341,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mytilida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Mytilus</t>
+          <t>Ruditapes</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mysid crustacean</t>
+          <t>Mediterranean mussel</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Neomysis awatschensis</t>
+          <t>Mytilus galloprovincialis</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2373,34 +2373,34 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mysida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mysidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Neomysis</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>N. scintillans dinoflagellate</t>
+          <t>Mussels</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Noctiluca scintillans</t>
+          <t>Mytilus spp.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2410,34 +2410,34 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Dinophyceae</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Noctilucales</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Noctilucaceae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Noctiluca</t>
+          <t>Mytilus</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Navaja clam</t>
+          <t>Mysid crustacean</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ensis macha</t>
+          <t>Neomysis awatschensis</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2447,34 +2447,34 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Mysida</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Pharidae</t>
+          <t>Mysidae</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ensis</t>
+          <t>Neomysis</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Noble scallop</t>
+          <t>N. scintillans dinoflagellate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Chlamys nobilis</t>
+          <t>Noctiluca scintillans</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2484,34 +2484,34 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Dinophyceae</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Noctilucales</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Noctilucaceae</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chlamys</t>
+          <t>Noctiluca</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Northern quahog</t>
+          <t>Navaja clam</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mercenaria mercenaria</t>
+          <t>Ensis macha</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2531,172 +2531,172 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Pharidae</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Mercenaria</t>
+          <t>Ensis</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Obscure pufferfish</t>
+          <t>Noble scallop</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Takifugu obscurus</t>
+          <t>Chlamys nobilis</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Tetraodontiformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tetraodontidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Takifugu</t>
+          <t>Chlamys</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Orange-spotted grouper</t>
+          <t>Northern quahog</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Epinephelus coioides</t>
+          <t>Mercenaria mercenaria</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Serranidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Epinephelus</t>
+          <t>Mercenaria</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pacific giant lions-paw scallop</t>
+          <t>Obscure pufferfish</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Nodipecten subnodosus</t>
+          <t>Takifugu obscurus</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Tetraodontiformes</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Tetraodontidae</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Nodipecten</t>
+          <t>Takifugu</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Pacific mole crab</t>
+          <t>Orange-spotted grouper</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Emerita analoga</t>
+          <t>Epinephelus coioides</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Hippidae</t>
+          <t>Serranidae</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Emerita</t>
+          <t>Epinephelus</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pacific oyster</t>
+          <t>Pacific giant lions-paw scallop</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Magallana gigas</t>
+          <t>Nodipecten subnodosus</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2711,29 +2711,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ostreida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Nodipecten</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pacific oyster (diploid)</t>
+          <t>Pacific mole crab</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Magallana gigas</t>
+          <t>Emerita analoga</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2743,29 +2743,29 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Ostreida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Hippidae</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Magallana</t>
+          <t>Emerita</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pacific oyster (triploid)</t>
+          <t>Pacific oyster</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2802,12 +2802,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Pacific razor clam</t>
+          <t>Pacific oyster (diploid)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Siliqua patula</t>
+          <t>Magallana gigas</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2822,29 +2822,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Pharidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Siliqua</t>
+          <t>Magallana</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Peruvian calico scallop</t>
+          <t>Pacific oyster (triploid)</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Argopecten purpuratus</t>
+          <t>Magallana gigas</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2859,66 +2859,66 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Argopecten</t>
+          <t>Magallana</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Pinfish</t>
+          <t>Pacific razor clam</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Lagodon rhomboides</t>
+          <t>Siliqua patula</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sparidae</t>
+          <t>Pharidae</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Lagodon</t>
+          <t>Siliqua</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Pipi clam</t>
+          <t>Peruvian calico scallop</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Paphies australis</t>
+          <t>Argopecten purpuratus</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2933,66 +2933,66 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Mesodesmatidae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Paphies</t>
+          <t>Argopecten</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Purple clam</t>
+          <t>Pinfish</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Hiatula diphos</t>
+          <t>Lagodon rhomboides</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cardiida</t>
+          <t>Perciformes</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Psammobiidae</t>
+          <t>Sparidae</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hiatula</t>
+          <t>Lagodon</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Purple-hinged rock scallop</t>
+          <t>Pipi clam</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Crassadoma gigantea</t>
+          <t>Paphies australis</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3007,29 +3007,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Mesodesmatidae</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Crassadoma</t>
+          <t>Paphies</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Queen scallop</t>
+          <t>Purple clam</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Aequipecten opercularis</t>
+          <t>Hiatula diphos</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3044,29 +3044,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Cardiida</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Psammobiidae</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Aequipecten</t>
+          <t>Hiatula</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Red rock crab</t>
+          <t>Purple-hinged rock scallop</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cancer productus</t>
+          <t>Crassadoma gigantea</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3076,34 +3076,34 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Cancridae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Cancer</t>
+          <t>Crassadoma</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Red sea squirt</t>
+          <t>Queen scallop</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Pyura chilensis</t>
+          <t>Aequipecten opercularis</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3113,34 +3113,34 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ascidiacea</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Pleurogona</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Pyuridae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Pyura</t>
+          <t>Aequipecten</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ribbed mussel</t>
+          <t>Red rock crab</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Aulacomya atra</t>
+          <t>Cancer productus</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3150,34 +3150,34 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Cancridae</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Aulacomya</t>
+          <t>Cancer</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Rough cockle</t>
+          <t>Red sea squirt</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Acanthocardia tuberculata</t>
+          <t>Pyura chilensis</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3187,34 +3187,34 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Ascidiacea</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Pleurogona</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Cardiidae</t>
+          <t>Pyuridae</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Acanthocardia</t>
+          <t>Pyura</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Smooth clam</t>
+          <t>Rough cockle</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Callista chione</t>
+          <t>Acanthocardia tuberculata</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3234,24 +3234,24 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Cardiidae</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Callista</t>
+          <t>Acanthocardia</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Soft-shell clam</t>
+          <t>Smooth clam</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Mya arenaria</t>
+          <t>Callista chione</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3266,29 +3266,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Myoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Myidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Mya</t>
+          <t>Callista</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>South African abalone</t>
+          <t>Soft-shell clam</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Haliotis midae</t>
+          <t>Mya arenaria</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3298,34 +3298,34 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Patellogastropoda</t>
+          <t>Myoida</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Haliotidae</t>
+          <t>Myidae</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Haliotis</t>
+          <t>Mya</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Southern rock lobster</t>
+          <t>South African abalone</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Jasus edwardsii</t>
+          <t>Haliotis midae</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3335,34 +3335,34 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Malacostraca</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Decapoda</t>
+          <t>Patellogastropoda</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Palinuridae</t>
+          <t>Haliotidae</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Jasus</t>
+          <t>Haliotis</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Southern tuatua clam</t>
+          <t>Southern rock lobster</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Paphies donacina</t>
+          <t>Jasus edwardsii</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3372,108 +3372,108 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Malacostraca</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Decapoda</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Mesodesmatidae</t>
+          <t>Palinuridae</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Paphies</t>
+          <t>Jasus</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Striped mullet</t>
+          <t>Southern tuatua clam</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Mugil cephalus</t>
+          <t>Paphies donacina</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Mugiliformes</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Mugilidae</t>
+          <t>Mesodesmatidae</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Mugil</t>
+          <t>Paphies</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Surf clam</t>
+          <t>Striped mullet</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Spisula solida</t>
+          <t>Mugil cephalus</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Mugiliformes</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Mactridae</t>
+          <t>Mugilidae</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Spisula</t>
+          <t>Mugil</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Sydney rock oyster</t>
+          <t>Surf clam</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Saccostrea glomerata</t>
+          <t>Spisula solida</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3488,29 +3488,29 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Mactridae</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Saccostrea</t>
+          <t>Spisula</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Tegula snail</t>
+          <t>Sydney rock oyster</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tegula spp.</t>
+          <t>Saccostrea glomerata</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3520,34 +3520,34 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Gastropoda</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Trochida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tegulidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Tegula</t>
+          <t>Saccostrea</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Trinidad swamp mussel</t>
+          <t>Tegula snail</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Mytella guyanensis</t>
+          <t>Tegula spp.</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3557,34 +3557,34 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Gastropoda</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Trochida</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Mytilidae</t>
+          <t>Tegulidae</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Mytella</t>
+          <t>Tegula</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Variegated scallop</t>
+          <t>Trinidad swamp mussel</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Mimachlamys varia</t>
+          <t>Mytella guyanensis</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3599,29 +3599,29 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Mytiloida</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Pectinidae</t>
+          <t>Mytilidae</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Mimachlamys</t>
+          <t>Mytella</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Warty venus</t>
+          <t>Variegated scallop</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Chamelea gallina</t>
+          <t>Mimachlamys varia</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3636,29 +3636,29 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Veneridae</t>
+          <t>Pectinidae</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Chamelea</t>
+          <t>Mimachlamys</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>West Africa mangrove oyster</t>
+          <t>Warty venus</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Crassostrea gasar</t>
+          <t>Chamelea gallina</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3673,91 +3673,91 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Veneroida</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ostreidae</t>
+          <t>Veneridae</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Crassostrea</t>
+          <t>Chamelea</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>White seabream</t>
+          <t>West Africa mangrove oyster</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Diplodus sargus</t>
+          <t>Crassostrea gasar</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>fish</t>
+          <t>invert</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Bivalvia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Acanthuriformes</t>
+          <t>Ostreoida</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Sparidae</t>
+          <t>Ostreidae</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Diplodus</t>
+          <t>Crassostrea</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Zebra mussel</t>
+          <t>White seabream</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Dreissena polymorpha</t>
+          <t>Diplodus sargus</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>invert</t>
+          <t>fish</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Bivalvia</t>
+          <t>Actinopterygii</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Acanthuriformes</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Dreissenidae</t>
+          <t>Sparidae</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Dreissena</t>
+          <t>Diplodus</t>
         </is>
       </c>
     </row>

--- a/data/lit_review/processed/species_key.xlsx
+++ b/data/lit_review/processed/species_key.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Copepoda</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -449,7 +449,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Copepoda</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Cardiida</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Corbiculidae</t>
+          <t>Cyrenidae</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Clupeidae</t>
+          <t>Alosidae</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -782,12 +782,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Acanthuriformes</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Patellogastropoda</t>
+          <t>Lepetellida</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Eupercaria/misc</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cetacea</t>
+          <t>Cetartiodactyla</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Copepoda</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Copepoda</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Callianassidae</t>
+          <t>Callichiridae</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Cardiida</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Adapedonta</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Solecurtidae</t>
+          <t>Pharidae</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1633,7 +1633,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maxillopoda</t>
+          <t>Copepoda</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Myoida</t>
+          <t>Adapedonta</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Eupercaria/misc</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Adapedonta</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2040,7 +2040,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2299,12 +2299,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Scorpaeniformes</t>
+          <t>Perciformes/Scorpaenoidei</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Adapedonta</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chlamys nobilis</t>
+          <t>Mimachlamys crassicostata</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2563,7 +2563,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Chlamys</t>
+          <t>Mimachlamys</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Perciformes/Serranoidei</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Serranidae</t>
+          <t>Epinephelidae</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Adapedonta</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -2933,7 +2933,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -2965,12 +2965,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Perciformes</t>
+          <t>Eupercaria/misc</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3192,7 +3192,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Pleurogona</t>
+          <t>Stolidobranchia</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3229,7 +3229,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Cardiida</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3266,7 +3266,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Myoida</t>
+          <t>Myida</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Patellogastropoda</t>
+          <t>Lepetellida</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3414,7 +3414,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3599,7 +3599,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Mytiloida</t>
+          <t>Mytilida</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Pectinida</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Veneroida</t>
+          <t>Venerida</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Crassostrea gasar</t>
+          <t>Crassostrea tulipa</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Ostreoida</t>
+          <t>Ostreida</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Actinopterygii</t>
+          <t>Teleostei</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Acanthuriformes</t>
+          <t>Eupercaria/misc</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
